--- a/data/trans_bre/P12A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,12</t>
+          <t>-17,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-43,29%</t>
+          <t>-45,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-74,67%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 16,32</t>
+          <t>-11,51; 23,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 25,35</t>
+          <t>-27,65; 7,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 2,27</t>
+          <t>-35,99; -1,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 139,69</t>
+          <t>-13,62; 21,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 182,64</t>
+          <t>-50,79; 377,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 11,91</t>
+          <t>-83,0; 68,42</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-94,11; -10,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-54,14; 283,92</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,46%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,98%</t>
+          <t>-39,25%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,36%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 2,79</t>
+          <t>-6,88; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 1,87</t>
+          <t>-20,97; 0,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 4,47</t>
+          <t>-18,3; 5,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 23,85</t>
+          <t>-17,92; 6,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 17,08</t>
+          <t>-41,14; 86,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 38,68</t>
+          <t>-71,32; 4,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-65,33; 52,79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-57,35; 40,84</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,73%</t>
+          <t>-28,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>-49,05%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-31,16%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-41,3%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 6,34</t>
+          <t>-12,34; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 3,1</t>
+          <t>-17,16; -0,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 6,95</t>
+          <t>-13,5; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 95,27</t>
+          <t>-15,7; 1,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 41,65</t>
+          <t>-63,99; 32,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 124,76</t>
+          <t>-74,45; 4,31</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-66,75; 38,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-69,75; 17,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 29,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 26,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 15,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-8,11</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-5,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-44,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-33,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-19,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 4,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; -2,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 0,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; 2,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-37,59; 38,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-63,09; -16,42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-59,02; 2,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-46,86; 19,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-10,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-17,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,53%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-45,16%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-74,67%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>22,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4484145612546037</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-10.66085391727483</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-19.21083311429686</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.754655843672526</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.02260688325520396</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4418542004362457</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.748876992807175</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3698344176911707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,51; 23,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-27,65; 7,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-35,99; -1,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 21,68</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-50,79; 377,66</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-83,0; 68,42</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-94,11; -10,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-54,14; 283,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.81526456592392</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-28.5080919546424</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-38.29421899650835</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.90133460442223</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6429857646628887</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8200676064060686</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.9353323778911841</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.494755928126615</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.52828698894628</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.161876119842654</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.778297650205511</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>25.88033542934888</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.339453146139852</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7377973994122815</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.06815806738413464</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.603995371167303</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,62</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-39,25%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-14,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-16,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 7,78</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,97; 0,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,3; 5,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-17,92; 6,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-41,14; 86,02</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-71,32; 4,95</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-65,33; 52,79</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-57,35; 40,84</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.4475099908322941</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.145073446656546</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.252919424253573</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.130518818870792</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.03646731136664515</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3516083744255757</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.08176710579347773</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1479377580506545</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,94</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,21</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,75</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-28,11%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-49,05%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-31,16%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-41,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.510883741880057</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.79847365600423</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.81124084455603</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-17.93693756569882</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4189648384099046</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6680719594634824</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6343505266201978</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5754197046692221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 2,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; -0,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,5; 3,14</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,7; 1,43</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-63,99; 32,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-74,45; 4,31</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-66,75; 38,53</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-69,75; 17,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.431033608369428</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.430074949816185</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.526377472027079</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.345334371655639</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.8624481160354688</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1527398513888813</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6466529522539077</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4301707658776179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.202864841837329</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.633680001379505</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.157998500367575</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.379777942051141</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3494288452633035</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5137474534569216</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3107212167152533</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4419703101532402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.80255387155472</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.30652528064482</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.50707924977021</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.26770851283384</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7029573273828026</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7591321996351221</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6693090516893206</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7125701760678548</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.860665834694862</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.140588898704928</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.171008535963667</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7158657770891351</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2301596666932485</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.02158165108642331</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4028073931181234</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1077564749291455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-44,14%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-33,34%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-19,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 4,06</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; -2,66</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; 0,29</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; 2,86</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-37,59; 38,72</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-63,09; -16,42</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-59,02; 2,56</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-46,86; 19,19</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.821779266337906</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-7.734026104107053</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.065275195231522</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.201997389245675</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1270959646388288</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4272005857003923</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.3149075547179447</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1707626215615447</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.071291195962674</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.73209220097329</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.07957024216297</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.66299081477106</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4302012930046556</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6191726366003512</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.566653353374303</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4723273198342154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.125756974140422</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.110444768110034</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4876929223891844</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.452971515670649</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.284227614891931</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1421504596735875</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.05255697982805384</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.241044376880319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
